--- a/medicine/Psychotrope/Viticulture_en_Roumanie/Viticulture_en_Roumanie.xlsx
+++ b/medicine/Psychotrope/Viticulture_en_Roumanie/Viticulture_en_Roumanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture en Roumanie a une longue histoire, produisant avec plusieurs cépages autochtones des vins peu connus à l'étranger.
 La Roumanie est au 9e rang mondial des pays producteurs de vin, ainsi que le premier producteur parmi les pays de l'Europe centrale et orientale. Elle est membre de l'organisation internationale de la vigne et du vin.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture aurait été apportée chez les Daces par les colonies grecques du bord de la mer Noire.
-Elle se développe pendant la période romaine, de la conquête par l'empereur Trajan en 106 à l'invasion barbare de 256, pour approvisionner les troupes (légions et auxiliaires) en garnison et les populations romanisées se trouvant dans la province de Dacie. Lors de la crise du troisième siècle, l'Empire romain perd la Dacie au profit des Carpes et des Goths (évacuation partielle sous Gallien en 260-268, totale sous Aurélien en 271-272[1]).
+Elle se développe pendant la période romaine, de la conquête par l'empereur Trajan en 106 à l'invasion barbare de 256, pour approvisionner les troupes (légions et auxiliaires) en garnison et les populations romanisées se trouvant dans la province de Dacie. Lors de la crise du troisième siècle, l'Empire romain perd la Dacie au profit des Carpes et des Goths (évacuation partielle sous Gallien en 260-268, totale sous Aurélien en 271-272).
 Pendant le Moyen Âge et l'Époque moderne, la présence d'une minorité allemande dans le Sud de la Transylvanie favorise l'implantation de cépages germaniques (encore présents aujourd'hui : le welschriesling et les traminers) et le goût pour les vins blancs sucrés (la majorité des vins roumains sont des blancs demi-sec). Les ravages du phylloxéra à l'extrême fin du XIXe siècle (à partir de 1885) favorise l'arrivée de cépages d'origine française (d'abord le sauvignon, le cabernet sauvignon et le pinot noir, plus tard le merlot).
 Comme dans tous les pays du bloc de l'Est, les vignerons se voient confisquer leurs terres durant la période communiste (de 1945 à 1989), la petite propriété individuelle étant remplacée par des fermes d'État (dites « coopératives »). Après la chute de la dictature ces vastes structures de production ont été vendues aux enchères par l'état roumain (les descendants des anciens vignerons, qui réclamaient leurs terres, recevant un modeste dédommagement). Depuis les années 1990, quelques viticulteurs étrangers se sont installés en Roumanie, attirés par les prix très bas du foncier et de la main-d'œuvre.
 </t>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Régions de productions
-Il existe quatre grandes régions viti-vinicoles : transylvaine, valaque, moldave et dobrogéenne[2].
+          <t>Régions de productions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe quatre grandes régions viti-vinicoles : transylvaine, valaque, moldave et dobrogéenne.
 La Transylvanie (Transilvania), essentiellement sur le plateau central :
 dans l'Ardeal, notamment dans la vallée de la Târnava (l'ancien Weinland autour de Mediaș), dans celle de la Bistrița (Lechința), autour d'Alba Iulia et d'Aiud ;
 dans le Banat (Recaș, Baziaș, Dealul Tirolului et Moldova Nouă) ;
@@ -561,29 +580,102 @@
 La Moldavie (Moldova ; cet article ne concerne pas la République de Moldavie dont les terroirs sont traités dans l'article « Viticulture en Moldavie », mais uniquement la région moldave de Roumanie) :
 le long du piémont de la courbure des Carpates (Panciu, Odobești et Cotești) ;
 ainsi que sur le plateau (Ivești, Nicorești, Zeletin, Dealu Bujorului, Colinele Tutovei, Huși, Iași et Cotnari).
-La Dobrogée (Dobrogea), essentiellement à Murfatlar, Babadag et Sarica-Niculițel où se trouvent de fameux cépages locaux[3].
-La superficie totale cultivée était de 242 700 hectares en 2002, soit 83 500 en Moldavie, 74 300 en Munténie, 35 100 en Olténie, 24 200 en Dobroudja, 11 100 en Crișana-Muramureș, 10 800 en Transylvanie et 3 700 hectares dans le Banat[4].
+La Dobrogée (Dobrogea), essentiellement à Murfatlar, Babadag et Sarica-Niculițel où se trouvent de fameux cépages locaux.
+La superficie totale cultivée était de 242 700 hectares en 2002, soit 83 500 en Moldavie, 74 300 en Munténie, 35 100 en Olténie, 24 200 en Dobroudja, 11 100 en Crișana-Muramureș, 10 800 en Transylvanie et 3 700 hectares dans le Banat.
 			Vignes transylvaines en conduite haute.
 			Bouteille de Grasă de Cotnari (vin doux).
 			Cave de Cotnari.
-Climat
-Le climat roumain est d'une façon générale de type continental, donc avec des saisons très contrastées : les hivers y sont froids et neigeux tandis que les étés y sont chauds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat roumain est d'une façon générale de type continental, donc avec des saisons très contrastées : les hivers y sont froids et neigeux tandis que les étés y sont chauds.
 Les nuances entre les régions sont dues à un climat plus frais en Transylvanie, aux influences montagnardes des Carpates en Valachie et en Moldavie, méditerranéennes dans le Banat (venant de l'Adriatique), ainsi qu'à la proximité de la mer Noire pour la Dobrogée qui adoucit relativement les hivers mais rend les étés plus secs.
 Climat à Timișoara (Banat, sud-ouest de la Roumanie)
-Source : Météo-France[5]
+Source : Météo-France
 Climat à Oradea (Crișana, nord-ouest de la Roumanie)
-Source : Météo-France[6]
+Source : Météo-France
 Climat à Târgu Mureș (Transylvanie, centre de la Roumanie)
-Source : Météo-France[7]
+Source : Météo-France
 Climat à Craiova (Valachie, sud-ouest de la Roumanie)
-Source : Météo-France[8]
+Source : Météo-France
 Climat à Iași (Moldavie, nord-est de la Roumanie)
-Source : Météo-France[9]
+Source : Météo-France
 Climat à Constanza (Dobrogée, sud-est de la Roumanie)
-Source : Météo-France[10]
-Cépages cultivés
-Cépages blancs et gris
-Les cépages européens classiques sont représentés (welschriesling, aligoté, sauvignon, pinot gris, chardonnay, muscat ottonel, gewurztraminer, muscat d'Alexandrie et chasselas) mais aussi les cépages autochtones[11] :
+Source : Météo-France
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cépages cultivés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cépages blancs et gris</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les cépages européens classiques sont représentés (welschriesling, aligoté, sauvignon, pinot gris, chardonnay, muscat ottonel, gewurztraminer, muscat d'Alexandrie et chasselas) mais aussi les cépages autochtones :
 Fetească regală
 Fetească albă
 Grasă de Cotnari (en)
@@ -591,42 +683,116 @@
 Frâncușă,
 Galbenă de Odobești (ro)
 Sarba,
-Tămâioasă românească (muscat roumain).
-Cépages noirs
-Outre les cépages européens classiques (cabernet sauvignon, merlot et pinot noir), on trouve des cépages autochtones :
+Tămâioasă românească (muscat roumain).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cépages cultivés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages noirs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Outre les cépages européens classiques (cabernet sauvignon, merlot et pinot noir), on trouve des cépages autochtones :
 Băbească neagră
 Fetească neagră ou Noir des pucelles
-Negru de Drăgășani.
-Anciens cépages
-Balcic</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Roumanie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Negru de Drăgășani.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anciens cépages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Balcic</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La législation viticole roumaine classe les vins selon la couleur (blanc, rosé ou rouge), la quantité de sucre (sec, demi-sec, demi-doux ou doux) et surtout son degré d'alcool :
 vinuri pentru consumul curent, vin de consommation courante :
@@ -639,72 +805,76 @@
 vinuri din struguri culesi la deplina maturitate, vendange à la pleine maturité des baies (DOCC-CMD, au moins 196 g de sucre par litre) ;
 vinuri din struguri culesi tarziu, vendange tardive (DOCC-CT, au moins 220 g de sucre par litre) ;
 vinuri din struguri stafiditi si cu putregai nobil, vendange à l'ennoblissement des baies avec pourriture noble (DOCC-CIB, au moins 240 g de sucre par litre).
-D'autres mentions traditionnelles peuvent être rajoutées : mis en bouteille chez le producteur, mise en bouteille spéciale, vin de vinothèque, vin médaillé, cépage pur, vin en tonneaux d'élite, trésor du cellier, réserve, vin jeune, vin porté à la maturation en barriques[13].
+D'autres mentions traditionnelles peuvent être rajoutées : mis en bouteille chez le producteur, mise en bouteille spéciale, vin de vinothèque, vin médaillé, cépage pur, vin en tonneaux d'élite, trésor du cellier, réserve, vin jeune, vin porté à la maturation en barriques.
 Depuis 1993, l'office national des appellations d'origine pour le vin et les autres produits vitivinicoles (ONDOV) a la charge des dénominations géographiques et des 132 appellations d'origine.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Roumanie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La production était de 5 089 800 hectolitres de vin pour l'année 2002, soit 2 035 500 en Moldavie, 1 530 000 en Munténie, 492 200 en Olténie, 400 800 en Dobrogée, 621 300 en Crișana-Muramures, 312 300 en Transylvanie et 57 700 hectares dans le Banat.
 68,5 % des vins produits en 2002 sont blancs, 31,4 % sont rouges ; 71,5 % sont des vins de consommation courante, 28 % sont des DOC.
-Tandis que les importations sont réduites (7 770 hectolitres), un dixième de la production roumaine est exporté, vers la Moldavie (218 110 hectolitres), l'Allemagne (152 360), la Tchéquie (35 180), l'Italie (23 270), le Royaume-Uni (11 230) ou Israël (8 820)[4].
+Tandis que les importations sont réduites (7 770 hectolitres), un dixième de la production roumaine est exporté, vers la Moldavie (218 110 hectolitres), l'Allemagne (152 360), la Tchéquie (35 180), l'Italie (23 270), le Royaume-Uni (11 230) ou Israël (8 820).
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Roumanie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Roumanie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tandis que les importations sont réduites (7 770 hectolitres en 2002, venant d'Italie, de France et un peu d'Allemagne), un dixième de la production roumaine est exporté, vers la République de Moldavie (218 110 hectolitres), l'Allemagne (152 360), la République tchèque (35 180), l'Italie (23 270), le Royaume-Uni (11 230) ou Israël (8 820)[4].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tandis que les importations sont réduites (7 770 hectolitres en 2002, venant d'Italie, de France et un peu d'Allemagne), un dixième de la production roumaine est exporté, vers la République de Moldavie (218 110 hectolitres), l'Allemagne (152 360), la République tchèque (35 180), l'Italie (23 270), le Royaume-Uni (11 230) ou Israël (8 820).
 Les Roumains consomment assez peu de vin, en comparaison de la consommation dans les pays d'Europe occidentale. Mis-à-part en Moldavie, région de forte tradition vinicole, la consommation de vin est surtout festive ; dans la vie courante, l'alcool est bu surtout sous forme de bière (en été) et d'eaux de vie nommées palinca ou tsouïca (notamment en hiver) produits localement à partir de fruits, et bus y compris à l'apéritif. La consommation du vin en Roumanie se fait souvent sous forme de « șpriţuri » : cocktails de vin blanc et d'eau minérale gazeuse.
 </t>
         </is>
